--- a/data/raw/election/voters-age-sex-education/2023/Yalova.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Yalova.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:04:49-14408021731" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="35">
   <si>
     <t>Yalova</t>
   </si>
@@ -119,6 +118,12 @@
   </si>
   <si>
     <t>Yalova Merkez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -666,16 +671,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1000,10 +1014,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:A162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,20 +1037,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1137,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="M6" s="5">
-        <v>1.57</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1176,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="5">
-        <v>1.462</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1217,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="M8" s="5">
-        <v>1.34</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1256,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="5">
-        <v>1.1970000000000001</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1297,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="5">
-        <v>1.21</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1336,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="M11" s="5">
-        <v>1.1319999999999999</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1377,7 +1391,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="5">
-        <v>1.145</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1416,7 +1430,7 @@
         <v>12</v>
       </c>
       <c r="M13" s="5">
-        <v>1.0840000000000001</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1457,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="M14" s="5">
-        <v>1.2909999999999999</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1496,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="M15" s="5">
-        <v>1.169</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1537,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="M16" s="5">
-        <v>1.071</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1575,7 +1589,7 @@
       <c r="L17" s="4">
         <v>10</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>920</v>
       </c>
     </row>
@@ -1616,7 +1630,7 @@
       <c r="L18" s="4">
         <v>6</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>910</v>
       </c>
     </row>
@@ -1655,7 +1669,7 @@
       <c r="L19" s="4">
         <v>9</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>790</v>
       </c>
     </row>
@@ -1696,7 +1710,7 @@
       <c r="L20" s="4">
         <v>18</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>797</v>
       </c>
     </row>
@@ -1735,7 +1749,7 @@
       <c r="L21" s="4">
         <v>11</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>787</v>
       </c>
     </row>
@@ -1776,7 +1790,7 @@
       <c r="L22" s="4">
         <v>5</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>670</v>
       </c>
     </row>
@@ -1815,7 +1829,7 @@
       <c r="L23" s="4">
         <v>9</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>705</v>
       </c>
     </row>
@@ -1856,7 +1870,7 @@
       <c r="L24" s="4">
         <v>11</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>573</v>
       </c>
     </row>
@@ -1895,7 +1909,7 @@
       <c r="L25" s="4">
         <v>7</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>641</v>
       </c>
     </row>
@@ -1936,7 +1950,7 @@
       <c r="L26" s="4">
         <v>10</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>412</v>
       </c>
     </row>
@@ -1975,7 +1989,7 @@
       <c r="L27" s="4">
         <v>8</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>453</v>
       </c>
     </row>
@@ -2016,7 +2030,7 @@
       <c r="L28" s="4">
         <v>10</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>495</v>
       </c>
     </row>
@@ -2055,7 +2069,7 @@
       <c r="L29" s="4">
         <v>16</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>691</v>
       </c>
     </row>
@@ -2063,39 +2077,39 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>488</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>635</v>
       </c>
       <c r="E30" s="5">
-        <v>4.641</v>
+        <v>4641</v>
       </c>
       <c r="F30" s="5">
-        <v>2.0310000000000001</v>
+        <v>2031</v>
       </c>
       <c r="G30" s="5">
-        <v>3.6720000000000002</v>
+        <v>3672</v>
       </c>
       <c r="H30" s="5">
-        <v>6.4340000000000002</v>
+        <v>6434</v>
       </c>
       <c r="I30" s="5">
-        <v>4.0279999999999996</v>
-      </c>
-      <c r="J30" s="5">
+        <v>4028</v>
+      </c>
+      <c r="J30" s="6">
         <v>308</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>45</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>233</v>
       </c>
       <c r="M30" s="5">
-        <v>22.515000000000001</v>
+        <v>22515</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2174,7 +2188,7 @@
       <c r="L32" s="4">
         <v>7</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="6">
         <v>477</v>
       </c>
     </row>
@@ -2213,7 +2227,7 @@
       <c r="L33" s="4">
         <v>9</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="6">
         <v>463</v>
       </c>
     </row>
@@ -2254,7 +2268,7 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>391</v>
       </c>
     </row>
@@ -2293,7 +2307,7 @@
       <c r="L35" s="4">
         <v>2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>394</v>
       </c>
     </row>
@@ -2334,7 +2348,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>386</v>
       </c>
     </row>
@@ -2373,7 +2387,7 @@
       <c r="L37" s="4">
         <v>4</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>323</v>
       </c>
     </row>
@@ -2414,7 +2428,7 @@
       <c r="L38" s="4">
         <v>4</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>348</v>
       </c>
     </row>
@@ -2453,7 +2467,7 @@
       <c r="L39" s="4">
         <v>3</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>337</v>
       </c>
     </row>
@@ -2494,7 +2508,7 @@
       <c r="L40" s="4">
         <v>4</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>361</v>
       </c>
     </row>
@@ -2533,7 +2547,7 @@
       <c r="L41" s="4">
         <v>5</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>349</v>
       </c>
     </row>
@@ -2574,7 +2588,7 @@
       <c r="L42" s="4">
         <v>3</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>332</v>
       </c>
     </row>
@@ -2613,7 +2627,7 @@
       <c r="L43" s="4">
         <v>6</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>337</v>
       </c>
     </row>
@@ -2654,7 +2668,7 @@
       <c r="L44" s="4">
         <v>4</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>345</v>
       </c>
     </row>
@@ -2693,7 +2707,7 @@
       <c r="L45" s="4">
         <v>4</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>336</v>
       </c>
     </row>
@@ -2734,7 +2748,7 @@
       <c r="L46" s="4">
         <v>12</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>402</v>
       </c>
     </row>
@@ -2773,7 +2787,7 @@
       <c r="L47" s="4">
         <v>9</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>390</v>
       </c>
     </row>
@@ -2814,7 +2828,7 @@
       <c r="L48" s="4">
         <v>13</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>395</v>
       </c>
     </row>
@@ -2853,7 +2867,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>412</v>
       </c>
     </row>
@@ -2894,7 +2908,7 @@
       <c r="L50" s="4">
         <v>8</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>379</v>
       </c>
     </row>
@@ -2933,7 +2947,7 @@
       <c r="L51" s="4">
         <v>8</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>335</v>
       </c>
     </row>
@@ -2974,7 +2988,7 @@
       <c r="L52" s="4">
         <v>4</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>285</v>
       </c>
     </row>
@@ -3013,7 +3027,7 @@
       <c r="L53" s="4">
         <v>7</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>277</v>
       </c>
     </row>
@@ -3054,7 +3068,7 @@
       <c r="L54" s="4">
         <v>12</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>321</v>
       </c>
     </row>
@@ -3093,7 +3107,7 @@
       <c r="L55" s="4">
         <v>10</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>365</v>
       </c>
     </row>
@@ -3101,39 +3115,39 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
         <v>150</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
         <v>261</v>
       </c>
       <c r="E56" s="5">
-        <v>2.7109999999999999</v>
-      </c>
-      <c r="F56" s="5">
+        <v>2711</v>
+      </c>
+      <c r="F56" s="6">
         <v>645</v>
       </c>
       <c r="G56" s="5">
-        <v>1.3580000000000001</v>
+        <v>1358</v>
       </c>
       <c r="H56" s="5">
-        <v>2.09</v>
+        <v>2090</v>
       </c>
       <c r="I56" s="5">
-        <v>1.262</v>
-      </c>
-      <c r="J56" s="5">
+        <v>1262</v>
+      </c>
+      <c r="J56" s="6">
         <v>105</v>
       </c>
-      <c r="K56" s="5">
-        <v>14</v>
-      </c>
-      <c r="L56" s="5">
+      <c r="K56" s="6">
+        <v>14</v>
+      </c>
+      <c r="L56" s="6">
         <v>144</v>
       </c>
       <c r="M56" s="5">
-        <v>8.74</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3213,7 +3227,7 @@
         <v>26</v>
       </c>
       <c r="M58" s="5">
-        <v>1.304</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3252,7 +3266,7 @@
         <v>29</v>
       </c>
       <c r="M59" s="5">
-        <v>1.294</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3293,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="M60" s="5">
-        <v>1.0760000000000001</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3332,7 +3346,7 @@
         <v>24</v>
       </c>
       <c r="M61" s="5">
-        <v>1.022</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3373,7 +3387,7 @@
         <v>17</v>
       </c>
       <c r="M62" s="5">
-        <v>1.0900000000000001</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3411,7 +3425,7 @@
       <c r="L63" s="4">
         <v>22</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>968</v>
       </c>
     </row>
@@ -3453,7 +3467,7 @@
         <v>23</v>
       </c>
       <c r="M64" s="5">
-        <v>1.0269999999999999</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3491,7 +3505,7 @@
       <c r="L65" s="4">
         <v>18</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>899</v>
       </c>
     </row>
@@ -3533,7 +3547,7 @@
         <v>20</v>
       </c>
       <c r="M66" s="5">
-        <v>1.107</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3572,7 +3586,7 @@
         <v>32</v>
       </c>
       <c r="M67" s="5">
-        <v>1.081</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3613,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="M68" s="5">
-        <v>1.0620000000000001</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3652,7 +3666,7 @@
         <v>40</v>
       </c>
       <c r="M69" s="5">
-        <v>1.1379999999999999</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3693,7 +3707,7 @@
         <v>41</v>
       </c>
       <c r="M70" s="5">
-        <v>1.073</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3732,7 +3746,7 @@
         <v>54</v>
       </c>
       <c r="M71" s="5">
-        <v>1.2490000000000001</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3773,7 +3787,7 @@
         <v>49</v>
       </c>
       <c r="M72" s="5">
-        <v>1.1879999999999999</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3812,7 +3826,7 @@
         <v>52</v>
       </c>
       <c r="M73" s="5">
-        <v>1.391</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3853,7 +3867,7 @@
         <v>65</v>
       </c>
       <c r="M74" s="5">
-        <v>1.3839999999999999</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3892,7 +3906,7 @@
         <v>69</v>
       </c>
       <c r="M75" s="5">
-        <v>1.4570000000000001</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3933,7 +3947,7 @@
         <v>72</v>
       </c>
       <c r="M76" s="5">
-        <v>1.302</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3972,7 +3986,7 @@
         <v>60</v>
       </c>
       <c r="M77" s="5">
-        <v>1.3680000000000001</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4013,7 +4027,7 @@
         <v>59</v>
       </c>
       <c r="M78" s="5">
-        <v>1.0029999999999999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4052,7 +4066,7 @@
         <v>58</v>
       </c>
       <c r="M79" s="5">
-        <v>1.018</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4093,7 +4107,7 @@
         <v>83</v>
       </c>
       <c r="M80" s="5">
-        <v>1.2050000000000001</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4132,46 +4146,46 @@
         <v>83</v>
       </c>
       <c r="M81" s="5">
-        <v>1.4039999999999999</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>443</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>644</v>
       </c>
       <c r="E82" s="5">
-        <v>6.59</v>
+        <v>6590</v>
       </c>
       <c r="F82" s="5">
-        <v>1.839</v>
+        <v>1839</v>
       </c>
       <c r="G82" s="5">
-        <v>4.0250000000000004</v>
+        <v>4025</v>
       </c>
       <c r="H82" s="5">
-        <v>8.4009999999999998</v>
+        <v>8401</v>
       </c>
       <c r="I82" s="5">
-        <v>4.6840000000000002</v>
-      </c>
-      <c r="J82" s="5">
+        <v>4684</v>
+      </c>
+      <c r="J82" s="6">
         <v>381</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>57</v>
       </c>
       <c r="L82" s="5">
-        <v>1.046</v>
+        <v>1046</v>
       </c>
       <c r="M82" s="5">
-        <v>28.11</v>
+        <v>28110</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4235,8 +4249,8 @@
       <c r="G84" s="4">
         <v>436</v>
       </c>
-      <c r="H84" s="4">
-        <v>1.3779999999999999</v>
+      <c r="H84" s="9">
+        <v>1378</v>
       </c>
       <c r="I84" s="4">
         <v>313</v>
@@ -4251,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="M84" s="5">
-        <v>2.161</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4274,8 +4288,8 @@
       <c r="G85" s="4">
         <v>327</v>
       </c>
-      <c r="H85" s="4">
-        <v>1.2729999999999999</v>
+      <c r="H85" s="9">
+        <v>1273</v>
       </c>
       <c r="I85" s="4">
         <v>487</v>
@@ -4290,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="M85" s="5">
-        <v>2.1440000000000001</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4331,7 +4345,7 @@
         <v>4</v>
       </c>
       <c r="M86" s="5">
-        <v>1.792</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4357,8 +4371,8 @@
       <c r="H87" s="4">
         <v>407</v>
       </c>
-      <c r="I87" s="4">
-        <v>1.0049999999999999</v>
+      <c r="I87" s="9">
+        <v>1005</v>
       </c>
       <c r="J87" s="4">
         <v>76</v>
@@ -4370,7 +4384,7 @@
         <v>13</v>
       </c>
       <c r="M87" s="5">
-        <v>1.784</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4411,7 +4425,7 @@
         <v>11</v>
       </c>
       <c r="M88" s="5">
-        <v>1.9179999999999999</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4450,7 +4464,7 @@
         <v>31</v>
       </c>
       <c r="M89" s="5">
-        <v>1.79</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4491,7 +4505,7 @@
         <v>22</v>
       </c>
       <c r="M90" s="5">
-        <v>1.8089999999999999</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4530,7 +4544,7 @@
         <v>22</v>
       </c>
       <c r="M91" s="5">
-        <v>1.7789999999999999</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4571,7 +4585,7 @@
         <v>23</v>
       </c>
       <c r="M92" s="5">
-        <v>1.8620000000000001</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4610,7 +4624,7 @@
         <v>34</v>
       </c>
       <c r="M93" s="5">
-        <v>1.8340000000000001</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4651,7 +4665,7 @@
         <v>33</v>
       </c>
       <c r="M94" s="5">
-        <v>1.617</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4690,7 +4704,7 @@
         <v>38</v>
       </c>
       <c r="M95" s="5">
-        <v>1.6839999999999999</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4731,7 +4745,7 @@
         <v>33</v>
       </c>
       <c r="M96" s="5">
-        <v>1.603</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4770,7 +4784,7 @@
         <v>23</v>
       </c>
       <c r="M97" s="5">
-        <v>1.5269999999999999</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4811,7 +4825,7 @@
         <v>33</v>
       </c>
       <c r="M98" s="5">
-        <v>1.321</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4850,7 +4864,7 @@
         <v>34</v>
       </c>
       <c r="M99" s="5">
-        <v>1.401</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4891,7 +4905,7 @@
         <v>37</v>
       </c>
       <c r="M100" s="5">
-        <v>1.2589999999999999</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4930,7 +4944,7 @@
         <v>36</v>
       </c>
       <c r="M101" s="5">
-        <v>1.306</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4971,7 +4985,7 @@
         <v>29</v>
       </c>
       <c r="M102" s="5">
-        <v>1.014</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5010,7 +5024,7 @@
         <v>28</v>
       </c>
       <c r="M103" s="5">
-        <v>1.119</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5050,7 +5064,7 @@
       <c r="L104" s="4">
         <v>23</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>714</v>
       </c>
     </row>
@@ -5089,7 +5103,7 @@
       <c r="L105" s="4">
         <v>28</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>819</v>
       </c>
     </row>
@@ -5130,7 +5144,7 @@
       <c r="L106" s="4">
         <v>43</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>873</v>
       </c>
     </row>
@@ -5170,46 +5184,46 @@
         <v>34</v>
       </c>
       <c r="M107" s="5">
-        <v>1.149</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
         <v>471</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="6">
         <v>718</v>
       </c>
       <c r="E108" s="5">
-        <v>5.665</v>
+        <v>5665</v>
       </c>
       <c r="F108" s="5">
-        <v>2.472</v>
+        <v>2472</v>
       </c>
       <c r="G108" s="5">
-        <v>4.8049999999999997</v>
+        <v>4805</v>
       </c>
       <c r="H108" s="5">
-        <v>11.243</v>
+        <v>11243</v>
       </c>
       <c r="I108" s="5">
-        <v>9.1080000000000005</v>
+        <v>9108</v>
       </c>
       <c r="J108" s="5">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="K108" s="5">
+        <v>1021</v>
+      </c>
+      <c r="K108" s="6">
         <v>129</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>647</v>
       </c>
       <c r="M108" s="5">
-        <v>36.279000000000003</v>
+        <v>36279</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5288,7 +5302,7 @@
       <c r="L110" s="4">
         <v>2</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="6">
         <v>259</v>
       </c>
     </row>
@@ -5327,7 +5341,7 @@
       <c r="L111" s="4">
         <v>1</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="6">
         <v>252</v>
       </c>
     </row>
@@ -5368,7 +5382,7 @@
       <c r="L112" s="4">
         <v>2</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="6">
         <v>222</v>
       </c>
     </row>
@@ -5407,7 +5421,7 @@
       <c r="L113" s="4">
         <v>4</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="6">
         <v>184</v>
       </c>
     </row>
@@ -5448,7 +5462,7 @@
       <c r="L114" s="4">
         <v>1</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="6">
         <v>201</v>
       </c>
     </row>
@@ -5487,7 +5501,7 @@
       <c r="L115" s="4">
         <v>4</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="6">
         <v>157</v>
       </c>
     </row>
@@ -5528,7 +5542,7 @@
       <c r="L116" s="4">
         <v>1</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="6">
         <v>188</v>
       </c>
     </row>
@@ -5567,7 +5581,7 @@
       <c r="L117" s="4">
         <v>6</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="6">
         <v>172</v>
       </c>
     </row>
@@ -5608,7 +5622,7 @@
       <c r="L118" s="4">
         <v>6</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="6">
         <v>215</v>
       </c>
     </row>
@@ -5647,7 +5661,7 @@
       <c r="L119" s="4">
         <v>5</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="6">
         <v>198</v>
       </c>
     </row>
@@ -5688,7 +5702,7 @@
       <c r="L120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="6">
         <v>178</v>
       </c>
     </row>
@@ -5727,7 +5741,7 @@
       <c r="L121" s="4">
         <v>2</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="6">
         <v>207</v>
       </c>
     </row>
@@ -5768,7 +5782,7 @@
       <c r="L122" s="4">
         <v>6</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="6">
         <v>208</v>
       </c>
     </row>
@@ -5807,7 +5821,7 @@
       <c r="L123" s="4">
         <v>4</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="6">
         <v>206</v>
       </c>
     </row>
@@ -5848,7 +5862,7 @@
       <c r="L124" s="4">
         <v>5</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="6">
         <v>212</v>
       </c>
     </row>
@@ -5887,7 +5901,7 @@
       <c r="L125" s="4">
         <v>5</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="6">
         <v>192</v>
       </c>
     </row>
@@ -5928,7 +5942,7 @@
       <c r="L126" s="4">
         <v>7</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="6">
         <v>187</v>
       </c>
     </row>
@@ -5967,7 +5981,7 @@
       <c r="L127" s="4">
         <v>6</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>181</v>
       </c>
     </row>
@@ -6008,7 +6022,7 @@
       <c r="L128" s="4">
         <v>2</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>156</v>
       </c>
     </row>
@@ -6047,7 +6061,7 @@
       <c r="L129" s="4">
         <v>3</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>173</v>
       </c>
     </row>
@@ -6088,7 +6102,7 @@
       <c r="L130" s="4">
         <v>5</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>113</v>
       </c>
     </row>
@@ -6127,7 +6141,7 @@
       <c r="L131" s="4">
         <v>3</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>130</v>
       </c>
     </row>
@@ -6168,7 +6182,7 @@
       <c r="L132" s="4">
         <v>7</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>148</v>
       </c>
     </row>
@@ -6207,7 +6221,7 @@
       <c r="L133" s="4">
         <v>5</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="6">
         <v>193</v>
       </c>
     </row>
@@ -6215,39 +6229,39 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
         <v>70</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="6">
         <v>126</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="6">
         <v>992</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="6">
         <v>353</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="6">
         <v>624</v>
       </c>
       <c r="H134" s="5">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="I134" s="5">
+        <v>1356</v>
+      </c>
+      <c r="I134" s="6">
         <v>854</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="6">
         <v>61</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="6">
         <v>4</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="6">
         <v>92</v>
       </c>
       <c r="M134" s="5">
-        <v>4.532</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6308,11 +6322,11 @@
       <c r="F136" s="4">
         <v>4</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.411</v>
-      </c>
-      <c r="H136" s="4">
-        <v>4.1219999999999999</v>
+      <c r="G136" s="9">
+        <v>1411</v>
+      </c>
+      <c r="H136" s="9">
+        <v>4122</v>
       </c>
       <c r="I136" s="4">
         <v>908</v>
@@ -6327,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="M136" s="5">
-        <v>6.59</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6347,14 +6361,14 @@
       <c r="F137" s="4">
         <v>3</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="H137" s="4">
-        <v>3.867</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1.3340000000000001</v>
+      <c r="G137" s="9">
+        <v>1019</v>
+      </c>
+      <c r="H137" s="9">
+        <v>3867</v>
+      </c>
+      <c r="I137" s="9">
+        <v>1334</v>
       </c>
       <c r="J137" s="4">
         <v>15</v>
@@ -6366,7 +6380,7 @@
         <v>63</v>
       </c>
       <c r="M137" s="5">
-        <v>6.3970000000000002</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6391,11 +6405,11 @@
       <c r="G138" s="4">
         <v>828</v>
       </c>
-      <c r="H138" s="4">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="I138" s="4">
-        <v>2.1819999999999999</v>
+      <c r="H138" s="9">
+        <v>1638</v>
+      </c>
+      <c r="I138" s="9">
+        <v>2182</v>
       </c>
       <c r="J138" s="4">
         <v>147</v>
@@ -6407,7 +6421,7 @@
         <v>45</v>
       </c>
       <c r="M138" s="5">
-        <v>4.9690000000000003</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6430,11 +6444,11 @@
       <c r="G139" s="4">
         <v>666</v>
       </c>
-      <c r="H139" s="4">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="I139" s="4">
-        <v>2.4969999999999999</v>
+      <c r="H139" s="9">
+        <v>1174</v>
+      </c>
+      <c r="I139" s="9">
+        <v>2497</v>
       </c>
       <c r="J139" s="4">
         <v>219</v>
@@ -6446,7 +6460,7 @@
         <v>55</v>
       </c>
       <c r="M139" s="5">
-        <v>4.9009999999999998</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6471,11 +6485,11 @@
       <c r="G140" s="4">
         <v>488</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.498</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1.873</v>
+      <c r="H140" s="9">
+        <v>1498</v>
+      </c>
+      <c r="I140" s="9">
+        <v>1873</v>
       </c>
       <c r="J140" s="4">
         <v>247</v>
@@ -6487,7 +6501,7 @@
         <v>65</v>
       </c>
       <c r="M140" s="5">
-        <v>4.718</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6510,11 +6524,11 @@
       <c r="G141" s="4">
         <v>348</v>
       </c>
-      <c r="H141" s="4">
-        <v>1.246</v>
-      </c>
-      <c r="I141" s="4">
-        <v>1.94</v>
+      <c r="H141" s="9">
+        <v>1246</v>
+      </c>
+      <c r="I141" s="9">
+        <v>1940</v>
       </c>
       <c r="J141" s="4">
         <v>254</v>
@@ -6526,7 +6540,7 @@
         <v>95</v>
       </c>
       <c r="M141" s="5">
-        <v>4.5949999999999998</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6551,11 +6565,11 @@
       <c r="G142" s="4">
         <v>423</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.61</v>
-      </c>
-      <c r="I142" s="4">
-        <v>1.6970000000000001</v>
+      <c r="H142" s="9">
+        <v>1610</v>
+      </c>
+      <c r="I142" s="9">
+        <v>1697</v>
       </c>
       <c r="J142" s="4">
         <v>310</v>
@@ -6567,7 +6581,7 @@
         <v>78</v>
       </c>
       <c r="M142" s="5">
-        <v>4.9210000000000003</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6590,11 +6604,11 @@
       <c r="G143" s="4">
         <v>437</v>
       </c>
-      <c r="H143" s="4">
-        <v>1.5009999999999999</v>
-      </c>
-      <c r="I143" s="4">
-        <v>1.615</v>
+      <c r="H143" s="9">
+        <v>1501</v>
+      </c>
+      <c r="I143" s="9">
+        <v>1615</v>
       </c>
       <c r="J143" s="4">
         <v>287</v>
@@ -6606,7 +6620,7 @@
         <v>115</v>
       </c>
       <c r="M143" s="5">
-        <v>4.9829999999999997</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6631,11 +6645,11 @@
       <c r="G144" s="4">
         <v>746</v>
       </c>
-      <c r="H144" s="4">
-        <v>1.8440000000000001</v>
-      </c>
-      <c r="I144" s="4">
-        <v>1.393</v>
+      <c r="H144" s="9">
+        <v>1844</v>
+      </c>
+      <c r="I144" s="9">
+        <v>1393</v>
       </c>
       <c r="J144" s="4">
         <v>272</v>
@@ -6647,7 +6661,7 @@
         <v>119</v>
       </c>
       <c r="M144" s="5">
-        <v>5.2210000000000001</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6670,11 +6684,11 @@
       <c r="G145" s="4">
         <v>737</v>
       </c>
-      <c r="H145" s="4">
-        <v>1.75</v>
-      </c>
-      <c r="I145" s="4">
-        <v>1.446</v>
+      <c r="H145" s="9">
+        <v>1750</v>
+      </c>
+      <c r="I145" s="9">
+        <v>1446</v>
       </c>
       <c r="J145" s="4">
         <v>256</v>
@@ -6686,7 +6700,7 @@
         <v>116</v>
       </c>
       <c r="M145" s="5">
-        <v>5.625</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6711,11 +6725,11 @@
       <c r="G146" s="4">
         <v>722</v>
       </c>
-      <c r="H146" s="4">
-        <v>1.61</v>
-      </c>
-      <c r="I146" s="4">
-        <v>1.1950000000000001</v>
+      <c r="H146" s="9">
+        <v>1610</v>
+      </c>
+      <c r="I146" s="9">
+        <v>1195</v>
       </c>
       <c r="J146" s="4">
         <v>225</v>
@@ -6727,7 +6741,7 @@
         <v>110</v>
       </c>
       <c r="M146" s="5">
-        <v>4.8760000000000003</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6750,11 +6764,11 @@
       <c r="G147" s="4">
         <v>805</v>
       </c>
-      <c r="H147" s="4">
-        <v>1.462</v>
-      </c>
-      <c r="I147" s="4">
-        <v>1.0369999999999999</v>
+      <c r="H147" s="9">
+        <v>1462</v>
+      </c>
+      <c r="I147" s="9">
+        <v>1037</v>
       </c>
       <c r="J147" s="4">
         <v>155</v>
@@ -6766,7 +6780,7 @@
         <v>100</v>
       </c>
       <c r="M147" s="5">
-        <v>5.0780000000000003</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6791,11 +6805,11 @@
       <c r="G148" s="4">
         <v>774</v>
       </c>
-      <c r="H148" s="4">
-        <v>1.3069999999999999</v>
-      </c>
-      <c r="I148" s="4">
-        <v>1.073</v>
+      <c r="H148" s="9">
+        <v>1307</v>
+      </c>
+      <c r="I148" s="9">
+        <v>1073</v>
       </c>
       <c r="J148" s="4">
         <v>179</v>
@@ -6807,7 +6821,7 @@
         <v>132</v>
       </c>
       <c r="M148" s="5">
-        <v>4.5880000000000001</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6821,8 +6835,8 @@
       <c r="D149" s="4">
         <v>71</v>
       </c>
-      <c r="E149" s="4">
-        <v>1.081</v>
+      <c r="E149" s="9">
+        <v>1081</v>
       </c>
       <c r="F149" s="4">
         <v>570</v>
@@ -6830,8 +6844,8 @@
       <c r="G149" s="4">
         <v>784</v>
       </c>
-      <c r="H149" s="4">
-        <v>1.24</v>
+      <c r="H149" s="9">
+        <v>1240</v>
       </c>
       <c r="I149" s="4">
         <v>713</v>
@@ -6846,7 +6860,7 @@
         <v>105</v>
       </c>
       <c r="M149" s="5">
-        <v>4.7249999999999996</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6871,8 +6885,8 @@
       <c r="G150" s="4">
         <v>717</v>
       </c>
-      <c r="H150" s="4">
-        <v>1.127</v>
+      <c r="H150" s="9">
+        <v>1127</v>
       </c>
       <c r="I150" s="4">
         <v>742</v>
@@ -6887,7 +6901,7 @@
         <v>117</v>
       </c>
       <c r="M150" s="5">
-        <v>3.9849999999999999</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6901,8 +6915,8 @@
       <c r="D151" s="4">
         <v>103</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.3979999999999999</v>
+      <c r="E151" s="9">
+        <v>1398</v>
       </c>
       <c r="F151" s="4">
         <v>402</v>
@@ -6910,8 +6924,8 @@
       <c r="G151" s="4">
         <v>635</v>
       </c>
-      <c r="H151" s="4">
-        <v>1.0369999999999999</v>
+      <c r="H151" s="9">
+        <v>1037</v>
       </c>
       <c r="I151" s="4">
         <v>444</v>
@@ -6926,7 +6940,7 @@
         <v>97</v>
       </c>
       <c r="M151" s="5">
-        <v>4.2469999999999999</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6951,8 +6965,8 @@
       <c r="G152" s="4">
         <v>596</v>
       </c>
-      <c r="H152" s="4">
-        <v>1.081</v>
+      <c r="H152" s="9">
+        <v>1081</v>
       </c>
       <c r="I152" s="4">
         <v>606</v>
@@ -6967,7 +6981,7 @@
         <v>109</v>
       </c>
       <c r="M152" s="5">
-        <v>3.75</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6981,8 +6995,8 @@
       <c r="D153" s="4">
         <v>140</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.6559999999999999</v>
+      <c r="E153" s="9">
+        <v>1656</v>
       </c>
       <c r="F153" s="4">
         <v>302</v>
@@ -7006,7 +7020,7 @@
         <v>96</v>
       </c>
       <c r="M153" s="5">
-        <v>3.8519999999999999</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7047,7 +7061,7 @@
         <v>83</v>
       </c>
       <c r="M154" s="5">
-        <v>2.9129999999999998</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7061,8 +7075,8 @@
       <c r="D155" s="4">
         <v>224</v>
       </c>
-      <c r="E155" s="4">
-        <v>1.631</v>
+      <c r="E155" s="9">
+        <v>1631</v>
       </c>
       <c r="F155" s="4">
         <v>113</v>
@@ -7086,7 +7100,7 @@
         <v>73</v>
       </c>
       <c r="M155" s="5">
-        <v>3.2069999999999999</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7127,7 +7141,7 @@
         <v>50</v>
       </c>
       <c r="M156" s="5">
-        <v>2.0430000000000001</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7141,8 +7155,8 @@
       <c r="D157" s="4">
         <v>226</v>
       </c>
-      <c r="E157" s="4">
-        <v>1.23</v>
+      <c r="E157" s="9">
+        <v>1230</v>
       </c>
       <c r="F157" s="4">
         <v>38</v>
@@ -7166,7 +7180,7 @@
         <v>82</v>
       </c>
       <c r="M157" s="5">
-        <v>2.3980000000000001</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7182,8 +7196,8 @@
       <c r="D158" s="4">
         <v>136</v>
       </c>
-      <c r="E158" s="4">
-        <v>1.282</v>
+      <c r="E158" s="9">
+        <v>1282</v>
       </c>
       <c r="F158" s="4">
         <v>28</v>
@@ -7207,7 +7221,7 @@
         <v>103</v>
       </c>
       <c r="M158" s="5">
-        <v>2.4820000000000002</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7221,8 +7235,8 @@
       <c r="D159" s="4">
         <v>529</v>
       </c>
-      <c r="E159" s="4">
-        <v>1.7030000000000001</v>
+      <c r="E159" s="9">
+        <v>1703</v>
       </c>
       <c r="F159" s="4">
         <v>14</v>
@@ -7246,57 +7260,67 @@
         <v>106</v>
       </c>
       <c r="M159" s="5">
-        <v>3.5760000000000001</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>1.5249999999999999</v>
+        <v>1525</v>
       </c>
       <c r="D160" s="5">
-        <v>2.1560000000000001</v>
+        <v>2156</v>
       </c>
       <c r="E160" s="5">
-        <v>17.16</v>
+        <v>17160</v>
       </c>
       <c r="F160" s="5">
-        <v>7.1989999999999998</v>
+        <v>7199</v>
       </c>
       <c r="G160" s="5">
-        <v>14.404999999999999</v>
+        <v>14405</v>
       </c>
       <c r="H160" s="5">
-        <v>31.945</v>
+        <v>31945</v>
       </c>
       <c r="I160" s="5">
-        <v>24.532</v>
+        <v>24532</v>
       </c>
       <c r="J160" s="5">
-        <v>3.0270000000000001</v>
-      </c>
-      <c r="K160" s="5">
+        <v>3027</v>
+      </c>
+      <c r="K160" s="6">
         <v>500</v>
       </c>
       <c r="L160" s="5">
-        <v>2.1909999999999998</v>
+        <v>2191</v>
       </c>
       <c r="M160" s="5">
-        <v>104.64</v>
+        <v>104640</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
